--- a/DataFiles/INFORM.xlsx
+++ b/DataFiles/INFORM.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\com.mci\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98810402-A5BB-422B-96A5-FE944E39F554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CF3DE0-B173-4324-AF8F-0565E01E87C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{B7AD5C0D-941F-4AE6-A4F6-F6E2291073F4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{B7AD5C0D-941F-4AE6-A4F6-F6E2291073F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
   <si>
     <t>Fullname</t>
   </si>
@@ -192,6 +193,9 @@
   </si>
   <si>
     <t>243263492369</t>
+  </si>
+  <si>
+    <t>431203</t>
   </si>
 </sst>
 </file>
@@ -306,7 +310,17 @@
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -640,7 +654,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,7 +802,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A5">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -799,7 +813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A294EB-C3CD-4A8F-B201-E0B800BE848D}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -916,6 +930,80 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA43C566-CA2C-46E0-8D67-8AA4C39046CD}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1"/>
+    </row>
+    <row r="2" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9D2095-0034-4A10-89FD-07DBD6C899B5}">
   <dimension ref="A6:H11"/>
   <sheetViews>
@@ -1094,7 +1182,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A6:A11">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
